--- a/biology/Médecine/Datation_des_cadavres/Datation_des_cadavres.xlsx
+++ b/biology/Médecine/Datation_des_cadavres/Datation_des_cadavres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La datation des cadavres est une des thématiques de la médecine légale. De telles méthodes de datation se basant sur les signes biologiques de la mort ne peuvent qu'estimer la date à partir de laquelle la décomposition d'un corps a commencé.
 </t>
@@ -511,7 +523,9 @@
           <t>Définition médico-légale de la mort</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’état de la mort semble ne pas avoir été très bien cerné par la législation. Si tout le monde reconnaît que la mort se caractérise par une décomposition du corps, il est des états menant irrémédiablement à cette décomposition sans que la décomposition soit installée ; c'est par exemple le cas de la mort cérébrale, l'activité cardiaque étant présente. Se posent alors des questions morales, voire religieuses : une personne dans cet état doit-elle être considérée comme morte, ce qui permet par exemple le prélèvement d'organe, ou bien doit-elle être considérée comme vivante, donc maintenue en vie de manière artificielle ?
 La datation d'un cadavre ne peut estimer que la date à partir de laquelle la décomposition commence.
@@ -549,10 +563,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimation du délai post-mortem par des méthodes thermométriques
-Après le décès, l’arrêt des phénomènes d’homéothermie entraîne une égalisation progressive de la température du corps avec celle de son environnement (dans les pays tempérés il s’agira donc le plus souvent d’un refroidissement). Bien que ce phénomène soit connu de longue date, son intérêt potentiel dans le champ de la médecine légale n’a été identifié que vers le milieu du XIXe siècle. Le principal intérêt du refroidissement en tant que marqueur du délai post-mortem est qu’il s’agit d’un phénomène aisément quantifiable, à la différence des autres marqueurs cadavériques.
-Modélisation du refroidissement
-Sous les climats tempérés, la température de la peau rejoint celle du milieu environnant en 8 à 12 heures en moyenne mais la température centrale du cadavre nécessite pour ce faire un délai deux à trois fois plus important. Ces constatations ont mené à un certain nombre de simplifications abusives selon lesquelles :
+          <t>Estimation du délai post-mortem par des méthodes thermométriques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après le décès, l’arrêt des phénomènes d’homéothermie entraîne une égalisation progressive de la température du corps avec celle de son environnement (dans les pays tempérés il s’agira donc le plus souvent d’un refroidissement). Bien que ce phénomène soit connu de longue date, son intérêt potentiel dans le champ de la médecine légale n’a été identifié que vers le milieu du XIXe siècle. Le principal intérêt du refroidissement en tant que marqueur du délai post-mortem est qu’il s’agit d’un phénomène aisément quantifiable, à la différence des autres marqueurs cadavériques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Estimation du délai post-mortem par des méthodes thermométriques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Modélisation du refroidissement</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sous les climats tempérés, la température de la peau rejoint celle du milieu environnant en 8 à 12 heures en moyenne mais la température centrale du cadavre nécessite pour ce faire un délai deux à trois fois plus important. Ces constatations ont mené à un certain nombre de simplifications abusives selon lesquelles :
 La température s’égaliserait avec celle du milieu ambiant en 24 heures.
 La vitesse de refroidissement serait de 1 °C par heure pendant les 24 premières heures.
 Ces simplifications reposaient sur l’idée que le refroidissement cadavérique pouvait être une fonction linéaire du temps. On sait aujourd’hui qu’il n’en est rien.
@@ -661,9 +719,47 @@
 Comme un médecin légiste n'a pas toujours sous la main une calculatrice scientifique pour déterminer t en fonction de T, Claus Hengsse a créé un système d'abaque permettant de déterminer, en fonction de la température du corps, de la température ambiante et de la masse de l'individu, le temps probable de la mort. C'est le Nomogramme de Henssge.
 À la valeur trouvée par le Nomogramme de Henssge, il faudra appliquer des facteurs correctifs en tenant compte du fait que l’évolution de la température dépend de nombreux facteurs tels que :
 Des caractéristiques propres au corps : température initiale, âge, éventuellement présence de vêtements…
-Des conditions dépendant du milieu extérieur : présence de vent ou de courants d'air, présence d'humidité, variabilité de la température extérieure.
-Utilisation pratique
-Sur le lieu d'un décès, il est essentiel de mesurer la température centrale du cadavre aussi bien que celle de l’environnement (c’est-à-dire la température de l’air ambiant). Les deux mesures doivent être réalisées au même moment avec le même instrument, et l’heure de la mesure doit être notée avec précision. Presque toujours, la température du cadavre sera mesurée au niveau rectal tout en sachant que ce site anatomique peut présenter des problèmes lorsque la victime a pu faire l’objet de violences sexuelles. La prise de température ne doit jamais être effectuée avec un thermomètre médical, car sa gamme de températures est trop restreinte, l’instrument de référence étant le thermomètre électronique à thermocouple, de grande précision et équipé d’une sonde de pénétration souple ou rigide. Cette dernière doit être introduite d’au moins 10 à 15 cm dans le rectum du cadavre pour obtenir une bonne estimation de la température centrale. Lorsqu'elle est mesurée dans des conditions appropriées, la température du corps doit être considérée comme l’un des meilleurs estimateurs du délai post mortem pendant les 24 premières heures.
+Des conditions dépendant du milieu extérieur : présence de vent ou de courants d'air, présence d'humidité, variabilité de la température extérieure.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Estimation du délai post-mortem par des méthodes thermométriques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Utilisation pratique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le lieu d'un décès, il est essentiel de mesurer la température centrale du cadavre aussi bien que celle de l’environnement (c’est-à-dire la température de l’air ambiant). Les deux mesures doivent être réalisées au même moment avec le même instrument, et l’heure de la mesure doit être notée avec précision. Presque toujours, la température du cadavre sera mesurée au niveau rectal tout en sachant que ce site anatomique peut présenter des problèmes lorsque la victime a pu faire l’objet de violences sexuelles. La prise de température ne doit jamais être effectuée avec un thermomètre médical, car sa gamme de températures est trop restreinte, l’instrument de référence étant le thermomètre électronique à thermocouple, de grande précision et équipé d’une sonde de pénétration souple ou rigide. Cette dernière doit être introduite d’au moins 10 à 15 cm dans le rectum du cadavre pour obtenir une bonne estimation de la température centrale. Lorsqu'elle est mesurée dans des conditions appropriées, la température du corps doit être considérée comme l’un des meilleurs estimateurs du délai post mortem pendant les 24 premières heures.
 Cette technique présente cependant un certain nombre de limitations :
 Elle n’est valide que pendant la phase intermédiaire de l'évolution du refroidissement, c'est-à-dire entre 3 et 18 heures.
 La méthode thermométrique suppose que la température corporelle au moment du décès se trouvait dans les limites physiologiques (entre 36,8 et 37,6 °C) ; une hyperthermie (rencontrée par exemple dans le cas d'un décès dans un contexte infectieux) ou une hypothermie ante-mortem (par exemple quelqu'un retrouvé mort de froid) peuvent fausser considérablement les estimations, et doivent donc être étudiées chaque fois que des renseignements sur les circonstances de la mort seront disponibles.
@@ -705,8 +801,47 @@
 Mesure répétée ou continue de la température post-mortem pendant plusieurs heures.
 Mesure de la température centrale par des moyens invasifs (introduction de sondes au niveau intra-hépatique, intra-cérébral, etc.).
 Ces méthodes ont en commun d'être difficiles à mettre en œuvre en routine sur une scène de décès ; en outre aucune d'entre elles n'a véritablement fait la preuve de sa supériorité par rapport à la méthode thermométrique de référence.
-Exemple
-On retrouve un corps dans une mare. Celui-ci pèse 80 kg et sa température rectale est de 20 °C. À l'aide de données météorologiques, on détermine la température moyenne des quinze derniers jours : on obtient, pour la température de l'eau, 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Estimation du délai post-mortem par des méthodes thermométriques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Exemple</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve un corps dans une mare. Celui-ci pèse 80 kg et sa température rectale est de 20 °C. À l'aide de données météorologiques, on détermine la température moyenne des quinze derniers jours : on obtient, pour la température de l'eau, 
           T
               m
               o
@@ -725,14 +860,127 @@
         11.25
     {\displaystyle 0,5\times 22.5=11.25}
  heures. La fourchette de fiabilité à 95 % est, dans ce cas précis, de + ou - 4,5 heures. ce qui place la date de la mort entre 6.75 heures et 15,75 heures plus tôt.
-Rigidité cadavérique : un outil dans l'estimation du délai post-mortem précoce
-La rigidité cadavérique (ou rigor mortis) est un raidissement progressif de la musculature causé par des transformations biochimiques irréversibles affectant les fibres musculaires au cours de la phase post-mortem précoce. Cet état disparaît habituellement lorsqu'apparaît la putréfaction, c'est-à-dire au bout de deux à quatre jours selon les circonstances.
-Explication de la rigidité cadavérique
-La rigidité se caractérise par une perte d'élasticité des tissus, et notamment  des muscles, causée par la coagulation de la myosine, une protéine qui y est présente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Rigidité cadavérique : un outil dans l'estimation du délai post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rigidité cadavérique (ou rigor mortis) est un raidissement progressif de la musculature causé par des transformations biochimiques irréversibles affectant les fibres musculaires au cours de la phase post-mortem précoce. Cet état disparaît habituellement lorsqu'apparaît la putréfaction, c'est-à-dire au bout de deux à quatre jours selon les circonstances.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rigidité cadavérique : un outil dans l'estimation du délai post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Explication de la rigidité cadavérique</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rigidité se caractérise par une perte d'élasticité des tissus, et notamment  des muscles, causée par la coagulation de la myosine, une protéine qui y est présente.
 Plus précisément, elle est due à l’arrêt des pompes ATPasiques par SERCA (donc de l'approvisionnement des cellules en énergie) qui entraîne une accumulation des ions calcium Ca2+ dans le réticulum endoplasmique des cellules musculaires; ce dernier étant appelé réticulum sarcoplasmique. Par le biais de cette altération et par la perte de l’étanchéité du réticulum endoplasmique, la concentration cytoplasmique du Ca2+ augmente. Sous l'action de cet ion, des ponts entre les filaments d’actine et de myosine se forment ce qui entraîne l'immobilisation du muscle.
 La disparition de la rigidité est en rapport avec l’autolyse et la putréfaction qui détruisent la structure des filaments d’actine et de myosine ainsi que les liaisons qui les unissent.
-Utilisation pratique
-La rigidité cadavérique affecte l’ensemble des muscles de l’organisme : elle débute à la nuque puis suit une marche descendante vers les membres inférieurs, comme l'indique la loi de Nysten. En effet, elle touche d’abord les petits muscles situés en haut du corps puis les muscles plus importants (en particulier les membres inférieurs), où elle prédomine, ce qui explique cette marche descendante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rigidité cadavérique : un outil dans l'estimation du délai post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Utilisation pratique</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rigidité cadavérique affecte l’ensemble des muscles de l’organisme : elle débute à la nuque puis suit une marche descendante vers les membres inférieurs, comme l'indique la loi de Nysten. En effet, elle touche d’abord les petits muscles situés en haut du corps puis les muscles plus importants (en particulier les membres inférieurs), où elle prédomine, ce qui explique cette marche descendante.
 La rigidité débute entre 3 et 4 heures après le décès, presque toujours au niveau de l’extrémité cervico-céphalique (nuque et muscles mastiquateurs).
 Elle atteint son intensité maximale à 24 heures post mortem.
 Elle se maintient ensuite entre 12 et 36 heures.
@@ -745,16 +993,128 @@
 Elle peut varier en intensité : ainsi, elle est très peu importante chez le sujet âgé ou émacié ou lors d’agonies prolongées (dans ce cas, il faut veiller à ne pas la confondre avec la raideur due au froid).
 Il n’existe pas d’instrument ou de technique permettant de la quantifier de manière précise.
 Pour ces différentes raisons, la rigidité cadavérique ne doit jamais être utilisée isolément pour tenter de déterminer le délai post-mortem mais doit être exploitée à la lumière d'autres méthodes de datation.
-Lividités cadavériques
-Les lividités cadavériques (ou livor mortis) sont une coloration rouge à violacée de la peau liée à un déplacement passif de la masse sanguine vers les parties déclives du cadavre, qui débute dès l'arrêt de l'écoulement du sang.
-Explication des lividités cadavériques
-Le processus d'apparition des lividités cadavériques débute dès la mort de l'individu. En effet :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lividités cadavériques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lividités cadavériques (ou livor mortis) sont une coloration rouge à violacée de la peau liée à un déplacement passif de la masse sanguine vers les parties déclives du cadavre, qui débute dès l'arrêt de l'écoulement du sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lividités cadavériques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Explication des lividités cadavériques</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le processus d'apparition des lividités cadavériques débute dès la mort de l'individu. En effet :
 La pompe cardiaque fait mouvoir le sang dans l’organisme et son arrêt en entraîne la stagnation.
 Après la mort, des ouvertures se forment dans la paroi des vaisseaux sanguins, constituées de cellules endothéliales.
 Des globules rouges s'échappent alors des vaisseaux, leur densité d = 1,095 étant supérieure à celle du plasma sanguin et des autres cellules sanguines, comprises entre 1,070 et 1,085.
-Le sang, en s’accumulant, devient visible par translucidité de la peau, d'où une modification de sa teinte qui caractérise les lividités cadavériques.
-Utilisation pratique
-Les lividités cadavériques se répartissent de manière caractéristique sur le cadavre :
+Le sang, en s’accumulant, devient visible par translucidité de la peau, d'où une modification de sa teinte qui caractérise les lividités cadavériques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lividités cadavériques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Utilisation pratique</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lividités cadavériques se répartissent de manière caractéristique sur le cadavre :
 Elles apparaissent d’abord sur le cou et s’étendent ensuite à d’autres régions de l’organisme vers la quinzième heure après le décès.
 Elles épargnent les points de pression : ainsi, sous l’effet de la gravitation, le sang d’une victime allongée s’accumule, s’immobilise et deviendra persistant sous la peau non comprimée des parties les plus basses.
 La vitesse de formation des lividités est variable. De manière générale :
@@ -769,8 +1129,43 @@
           O
     {\displaystyle \mathrm {CO} }
 ), alors que des lividités cyanosées orientent généralement vers une cause asphyxique ou vers un décès secondaire dû à une pathologie cardiaque ou pulmonaire.
-Dosage du potassium dans l’humeur vitrée de l'œil
-L’utilisation du dosage du potassium contenu dans l’humeur vitrée de l'œil date de plus de  25 ans. C’est une méthode utile mais qui, à elle seule, n’est guère plus précise que les signes cliniques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem précoce</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dosage du potassium dans l’humeur vitrée de l'œil</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’utilisation du dosage du potassium contenu dans l’humeur vitrée de l'œil date de plus de  25 ans. C’est une méthode utile mais qui, à elle seule, n’est guère plus précise que les signes cliniques.
 Cette méthode repose sur le principe suivant : lorsque l'organisme cesse son activité, les cellules de la paroi perdent leur semi-perméabilité et par conséquent libèrent une  partie des ions qu'elles contiennent (notamment le potassium). Et plus le temps s'écoule plus la teneur en  potassium augmente. Il ne peut pas y avoir de contamination possible par l'humeur vitrée, car celle-ci pour être translucide ne doit contenir que très peu d'ions.
 L'avantage essentiel de cette méthode est qu’elle est utilisable pendant quelques jours (jusqu'à une semaine) alors que les méthodes non biologiques ne le sont que pendant 24 à 48 heures maximum.
 Prélèvement : le prélèvement se fait au moyen d'une seringue munie d'une aiguille intramusculaire, dans l’angle externe de l’œil, par aspiration douce afin d’éviter toute contamination sanguine ou rétinienne. Il doit être effectué le plus précocement possible c'est-à-dire lors de la découverte du corps, avant sa mise en réfrigération.
@@ -812,34 +1207,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Datation_des_cadavres</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Technique de datation d'un cadavre en phase post-mortem moyenne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Putréfaction
-La putréfaction est la décomposition des tissus organiques sous l’influence prépondérante des bactéries hébergées par l’individu, surtout celles de la flore intestinale, ensuite des mycètes saprophytes et des bactéries minéralisantes qui envahissent le cadavre.
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Putréfaction</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La putréfaction est la décomposition des tissus organiques sous l’influence prépondérante des bactéries hébergées par l’individu, surtout celles de la flore intestinale, ensuite des mycètes saprophytes et des bactéries minéralisantes qui envahissent le cadavre.
 La putréfaction débute par :
 l'apparition d'une tache verte abdominale au niveau de la fosse iliaque droite ;
 l'apparition d'une tache verte abdominale au niveau de la fosse iliaque gauche ;
@@ -855,9 +1255,43 @@
 l’âge du cadavre ;
 les causes de la mort ;
 le lieu de dépôt ;
-les facteurs extérieurs : saisons, conditions météorologiques notamment la température et le degré hygrométrique, l'aération…, sont autant de points à considérer.
-Entomologie médico-légale
-L'examen du cadavre seul ne permet que trop rarement une datation précise. C'est pourquoi l'étude des insectes nécrophages s'est avérée indispensable à la résolution de certaines affaires. En effet, ces insectes arrivent par « vagues », faciles à représenter sur échelle de temps, qu'a très bien décrites le vétérinaire Jean Pierre Mégnin (1828-1905), qui publia en 1894 La faune des cadavres. Dans cet ouvrage, il décrit les huit vagues d’insectes qui se succèdent sur les cadavres en décomposition et dont l’étude permet de dater précisément la mort[1].
+les facteurs extérieurs : saisons, conditions météorologiques notamment la température et le degré hygrométrique, l'aération…, sont autant de points à considérer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Datation_des_cadavres</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Technique de datation d'un cadavre en phase post-mortem moyenne</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Entomologie médico-légale</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'examen du cadavre seul ne permet que trop rarement une datation précise. C'est pourquoi l'étude des insectes nécrophages s'est avérée indispensable à la résolution de certaines affaires. En effet, ces insectes arrivent par « vagues », faciles à représenter sur échelle de temps, qu'a très bien décrites le vétérinaire Jean Pierre Mégnin (1828-1905), qui publia en 1894 La faune des cadavres. Dans cet ouvrage, il décrit les huit vagues d’insectes qui se succèdent sur les cadavres en décomposition et dont l’étude permet de dater précisément la mort.
 </t>
         </is>
       </c>
